--- a/pred_ohlcv/54_21/2019-11-26 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-26 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-326278.8194731258</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-328594.0398731258</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-328594.0398731258</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-328588.0398731258</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-324493.5609731258</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-316723.8032731258</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-316723.8032731258</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-321316.7474731258</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-321316.7474731258</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-318169.8148731258</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-299914.8682731258</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-299997.3819731259</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-299879.8956731259</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-300546.1812731259</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-403266.7195731258</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-403235.1078731258</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-403229.4771731258</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-403814.687570178</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-404314.687570178</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-404314.687570178</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-404273.295770178</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-404273.295770178</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-406273.521270178</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-393244.297070178</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-433698.0587701781</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-433698.0587701781</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-439537.7795701781</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-619317.5487701783</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-619305.5487701783</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-619349.0888701783</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-619343.0888701783</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-619337.2888701783</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-619837.2888701783</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-618839.6484701782</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-618833.6484701782</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-619765.0469701783</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-620722.0300701782</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-623592.9793701782</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-621830.5319701781</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-621029.9762701781</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-617891.9762701781</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-617895.8726701781</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-617191.102270178</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-637716.8099701781</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-681937.7983917908</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-677698.1779917908</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-678013.9844917908</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-679513.9844917908</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-668163.4791917908</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-667047.1007917908</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-666080.6177917907</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-662131.6632917908</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-659568.4217917908</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-692366.0408917908</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-692360.0408917908</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>267088.7818082093</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>263277.2733082093</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>263282.6733082093</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>262916.1812082093</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>213434.7244082093</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>213484.7244082093</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>213490.2244082093</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>213478.5425082093</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>213097.4942082093</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>209622.3686082093</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>209627.8686082093</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>209569.7717082093</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>209563.5899082093</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>208763.5899082093</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>208771.7240082093</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>256715.9973411399</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>256349.5052411399</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>256658.0167411398</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>253212.4217411398</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>252480.9661411398</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>251388.5334411398</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>251948.7313411398</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>251941.7313411398</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>249758.1360411398</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>247773.8080411398</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>246281.2374411398</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-26 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-26 FCT ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-299914.8682731258</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-299997.3819731259</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-299879.8956731259</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-300546.1812731259</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-433298.515370178</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-433698.0587701781</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-433698.0587701781</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-439537.7795701781</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-430424.8192701781</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-430419.1244701781</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-454194.1553701781</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-452374.8029701781</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-435270.2122701781</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-435770.2122701781</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-423559.4514701781</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-281909.2825701782</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-618491.5245701782</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-619317.5487701783</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-620308.2283701781</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-620308.2283701781</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-621824.5319701781</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-621818.5319701781</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-621029.9762701781</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-621021.9762701781</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-617891.9762701781</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-617907.8726701781</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-617901.8726701781</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-617895.8726701781</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-617191.102270178</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-616691.102270178</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-616202.644970178</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-615363.733870178</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-615863.733870178</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-615857.733870178</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-637859.483570178</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-637716.8099701781</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-637716.8099701781</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-637610.8099701781</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-681937.7983917908</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-678584.6127917909</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-677704.1779917908</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-677698.1779917908</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-678013.9844917908</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-679513.9844917908</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-673263.4791917908</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-668263.4791917908</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-668163.4791917908</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-667425.4791917908</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-667047.1007917908</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-666080.6177917907</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-662131.6632917908</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-659568.4217917908</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-692366.0408917908</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-692360.0408917908</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-645897.1208917906</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-649989.9107917906</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-607859.9716917906</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-600852.5713917906</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-607050.0662917907</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-670505.9254917906</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-640384.0541917906</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-644739.1989917908</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>305047.1566082092</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>305059.1082082092</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>298357.9273082092</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>297661.2783082093</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>297661.2783082093</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>299050.0891082092</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>299050.0891082092</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>299060.0891082092</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>299054.0891082092</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>299064.0891082092</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>299422.1227082093</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>299407.1563082093</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>300319.9184082093</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>301310.0958082093</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>303612.5888082093</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>303249.1412082093</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>302737.5888082093</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>303104.0809082093</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>302741.9260082092</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>302735.4767082093</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>264796.5361082093</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>267452.2294082093</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>267088.7818082093</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>263277.2733082093</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>263282.6733082093</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>262916.1812082093</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>213434.7244082093</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>213484.7244082093</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>213484.7244082093</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>213490.2244082093</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>213478.5425082093</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>213097.4942082093</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>209622.3686082093</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>209564.2717082093</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>209569.7717082093</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>209563.5899082093</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>256349.5052411399</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>256658.0167411398</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>253212.4217411398</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>252847.4582411398</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>252480.9661411398</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>251388.5334411398</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>251948.7313411398</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>251941.7313411398</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>249758.1360411398</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
